--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H2">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I2">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J2">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N2">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O2">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P2">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q2">
-        <v>140.330596374921</v>
+        <v>313.377591412655</v>
       </c>
       <c r="R2">
-        <v>561.3223854996839</v>
+        <v>1253.51036565062</v>
       </c>
       <c r="S2">
-        <v>0.01381272833466232</v>
+        <v>0.04175128151339343</v>
       </c>
       <c r="T2">
-        <v>0.007660980575213399</v>
+        <v>0.02471307733379465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H3">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I3">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J3">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P3">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q3">
-        <v>35.72908958185901</v>
+        <v>82.21821414078067</v>
       </c>
       <c r="R3">
-        <v>214.374537491154</v>
+        <v>493.309284844684</v>
       </c>
       <c r="S3">
-        <v>0.003516811164405699</v>
+        <v>0.01095392873704235</v>
       </c>
       <c r="T3">
-        <v>0.002925803798254207</v>
+        <v>0.009725639962712168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H4">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I4">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J4">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N4">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O4">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P4">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q4">
-        <v>107.2768725940845</v>
+        <v>168.7747809500573</v>
       </c>
       <c r="R4">
-        <v>643.6612355645071</v>
+        <v>1012.648685700344</v>
       </c>
       <c r="S4">
-        <v>0.01055925319219328</v>
+        <v>0.02248585599258198</v>
       </c>
       <c r="T4">
-        <v>0.008784748925143875</v>
+        <v>0.0199644661643375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H5">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I5">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J5">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N5">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O5">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P5">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q5">
-        <v>25.20153109627425</v>
+        <v>83.593840244684</v>
       </c>
       <c r="R5">
-        <v>100.806124385097</v>
+        <v>334.375360978736</v>
       </c>
       <c r="S5">
-        <v>0.002480584502900263</v>
+        <v>0.01113720333706189</v>
       </c>
       <c r="T5">
-        <v>0.001375811442277156</v>
+        <v>0.006592242378541452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H6">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I6">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J6">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N6">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O6">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P6">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q6">
-        <v>108.518677617071</v>
+        <v>57.51728881685968</v>
       </c>
       <c r="R6">
-        <v>651.1120657024261</v>
+        <v>345.103732901158</v>
       </c>
       <c r="S6">
-        <v>0.01068148395205768</v>
+        <v>0.007663025637712807</v>
       </c>
       <c r="T6">
-        <v>0.008886438553832029</v>
+        <v>0.006803753262096779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H7">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I7">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J7">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N7">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O7">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P7">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q7">
-        <v>92.89815886068151</v>
+        <v>286.5486552589173</v>
       </c>
       <c r="R7">
-        <v>557.388953164089</v>
+        <v>1719.291931553504</v>
       </c>
       <c r="S7">
-        <v>0.00914395765628071</v>
+        <v>0.03817686363300148</v>
       </c>
       <c r="T7">
-        <v>0.007607296721700084</v>
+        <v>0.03389600567187773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.258607</v>
       </c>
       <c r="I8">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J8">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N8">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O8">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P8">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q8">
-        <v>439.9331532270672</v>
+        <v>426.9295048694283</v>
       </c>
       <c r="R8">
-        <v>2639.598919362403</v>
+        <v>2561.57702921657</v>
       </c>
       <c r="S8">
-        <v>0.04330258181688193</v>
+        <v>0.05687979751144823</v>
       </c>
       <c r="T8">
-        <v>0.03602549367345877</v>
+        <v>0.05050173732440068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.258607</v>
       </c>
       <c r="I9">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J9">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P9">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q9">
         <v>112.0098641901638</v>
@@ -1013,10 +1013,10 @@
         <v>1008.088777711474</v>
       </c>
       <c r="S9">
-        <v>0.01102512114127702</v>
+        <v>0.01492306884802881</v>
       </c>
       <c r="T9">
-        <v>0.01375849020748268</v>
+        <v>0.01987456714008376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.258607</v>
       </c>
       <c r="I10">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J10">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N10">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O10">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P10">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q10">
-        <v>336.3104985498963</v>
+        <v>229.9300768144982</v>
       </c>
       <c r="R10">
-        <v>3026.794486949067</v>
+        <v>2069.370691330485</v>
       </c>
       <c r="S10">
-        <v>0.03310301297482945</v>
+        <v>0.03063357313521883</v>
       </c>
       <c r="T10">
-        <v>0.04130997510287759</v>
+        <v>0.04079784206698162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.258607</v>
       </c>
       <c r="I11">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J11">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N11">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O11">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P11">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q11">
-        <v>79.00621338280948</v>
+        <v>113.8839464076493</v>
       </c>
       <c r="R11">
-        <v>474.0372802968569</v>
+        <v>683.3036784458961</v>
       </c>
       <c r="S11">
-        <v>0.007776574677210868</v>
+        <v>0.01517275273221711</v>
       </c>
       <c r="T11">
-        <v>0.006469705271148953</v>
+        <v>0.01347139769293813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.258607</v>
       </c>
       <c r="I12">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J12">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N12">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O12">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P12">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q12">
-        <v>340.2035283920562</v>
+        <v>78.35859458016813</v>
       </c>
       <c r="R12">
-        <v>3061.831755528506</v>
+        <v>705.2273512215131</v>
       </c>
       <c r="S12">
-        <v>0.0334862035618973</v>
+        <v>0.01043971180760805</v>
       </c>
       <c r="T12">
-        <v>0.04178816703131222</v>
+        <v>0.01390362500879555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.258607</v>
       </c>
       <c r="I13">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J13">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N13">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O13">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P13">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q13">
-        <v>291.2335656821343</v>
+        <v>390.3791428073049</v>
       </c>
       <c r="R13">
-        <v>2621.102091139208</v>
+        <v>3513.412285265745</v>
       </c>
       <c r="S13">
-        <v>0.0286660944129022</v>
+        <v>0.05201019452230948</v>
       </c>
       <c r="T13">
-        <v>0.03577304722667256</v>
+        <v>0.06926726087838125</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H14">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I14">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J14">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N14">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O14">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P14">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q14">
-        <v>584.0111248048472</v>
+        <v>255.6906669814233</v>
       </c>
       <c r="R14">
-        <v>3504.066748829084</v>
+        <v>1534.14400188854</v>
       </c>
       <c r="S14">
-        <v>0.05748416396519761</v>
+        <v>0.03406565533089242</v>
       </c>
       <c r="T14">
-        <v>0.04782383170614865</v>
+        <v>0.03024579644394897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H15">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I15">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J15">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P15">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q15">
-        <v>148.6930600594504</v>
+        <v>67.08338626546978</v>
       </c>
       <c r="R15">
-        <v>1338.237540535054</v>
+        <v>603.7504763892281</v>
       </c>
       <c r="S15">
-        <v>0.01463584490415427</v>
+        <v>0.008937516343193884</v>
       </c>
       <c r="T15">
-        <v>0.01826439149390769</v>
+        <v>0.01190299866852559</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H16">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I16">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J16">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N16">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O16">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P16">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q16">
-        <v>446.4520827791063</v>
+        <v>137.7065160154942</v>
       </c>
       <c r="R16">
-        <v>4018.068745011957</v>
+        <v>1239.358644139448</v>
       </c>
       <c r="S16">
-        <v>0.04394423948285912</v>
+        <v>0.01834663254151025</v>
       </c>
       <c r="T16">
-        <v>0.05483897916881851</v>
+        <v>0.02443407478407869</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H17">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I17">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J17">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N17">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O17">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P17">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q17">
-        <v>104.8807238231745</v>
+        <v>68.20578545948534</v>
       </c>
       <c r="R17">
-        <v>629.284342939047</v>
+        <v>409.234712756912</v>
       </c>
       <c r="S17">
-        <v>0.01032340047812379</v>
+        <v>0.009087053534122261</v>
       </c>
       <c r="T17">
-        <v>0.00858853174588862</v>
+        <v>0.008068101693587145</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H18">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I18">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J18">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N18">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O18">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P18">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q18">
-        <v>451.6200786901695</v>
+        <v>46.92943702276512</v>
       </c>
       <c r="R18">
-        <v>4064.580708211526</v>
+        <v>422.364933204886</v>
       </c>
       <c r="S18">
-        <v>0.0444529248686423</v>
+        <v>0.006252406649658775</v>
       </c>
       <c r="T18">
-        <v>0.0554737788058751</v>
+        <v>0.008326965251665607</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H19">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I19">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J19">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N19">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O19">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P19">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q19">
-        <v>386.6124683428043</v>
+        <v>233.8004337052409</v>
       </c>
       <c r="R19">
-        <v>3479.512215085239</v>
+        <v>2104.203903347168</v>
       </c>
       <c r="S19">
-        <v>0.03805423146457</v>
+        <v>0.03114922059863275</v>
       </c>
       <c r="T19">
-        <v>0.04748870912614044</v>
+        <v>0.04148458218971364</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H20">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I20">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J20">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N20">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O20">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P20">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q20">
-        <v>710.492336561377</v>
+        <v>636.7024298262174</v>
       </c>
       <c r="R20">
-        <v>2841.969346245508</v>
+        <v>2546.80971930487</v>
       </c>
       <c r="S20">
-        <v>0.06993369858246846</v>
+        <v>0.08482783426888811</v>
       </c>
       <c r="T20">
-        <v>0.03878746424402313</v>
+        <v>0.05021059839020405</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H21">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I21">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J21">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P21">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q21">
-        <v>180.8960055468164</v>
+        <v>167.0462028999223</v>
       </c>
       <c r="R21">
-        <v>1085.376033280898</v>
+        <v>1002.277217399534</v>
       </c>
       <c r="S21">
-        <v>0.01780557801356489</v>
+        <v>0.02225555762164956</v>
       </c>
       <c r="T21">
-        <v>0.01481331392184753</v>
+        <v>0.01975999166998428</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H22">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I22">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J22">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N22">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O22">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P22">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q22">
-        <v>543.1416799849766</v>
+        <v>342.9068193417407</v>
       </c>
       <c r="R22">
-        <v>3258.850079909859</v>
+        <v>2057.440916050444</v>
       </c>
       <c r="S22">
-        <v>0.05346138808404108</v>
+        <v>0.04568545913784571</v>
       </c>
       <c r="T22">
-        <v>0.04447709160484946</v>
+        <v>0.04056264540076386</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H23">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I23">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J23">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N23">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O23">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P23">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q23">
-        <v>127.5950874296722</v>
+        <v>169.841120299534</v>
       </c>
       <c r="R23">
-        <v>510.380349718689</v>
+        <v>679.364481198136</v>
       </c>
       <c r="S23">
-        <v>0.01255917330241262</v>
+        <v>0.02262792433310408</v>
       </c>
       <c r="T23">
-        <v>0.006965718891978341</v>
+        <v>0.01339373604060194</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H24">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I24">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J24">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N24">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O24">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P24">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q24">
-        <v>549.4289257825936</v>
+        <v>116.8602942591639</v>
       </c>
       <c r="R24">
-        <v>3296.573554695562</v>
+        <v>701.161765554983</v>
       </c>
       <c r="S24">
-        <v>0.05408024113832235</v>
+        <v>0.01556929141409986</v>
       </c>
       <c r="T24">
-        <v>0.04499194512758142</v>
+        <v>0.01382347159663611</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H25">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I25">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J25">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N25">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O25">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P25">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q25">
-        <v>470.3424032691655</v>
+        <v>582.1929521008507</v>
       </c>
       <c r="R25">
-        <v>2822.054419614993</v>
+        <v>3493.157712605104</v>
       </c>
       <c r="S25">
-        <v>0.04629576164040464</v>
+        <v>0.07756553915901533</v>
       </c>
       <c r="T25">
-        <v>0.03851566345714134</v>
+        <v>0.06886794003170794</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H26">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I26">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J26">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N26">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O26">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P26">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q26">
-        <v>205.3306593203693</v>
+        <v>229.0308351318483</v>
       </c>
       <c r="R26">
-        <v>1231.983955922216</v>
+        <v>1374.18501079109</v>
       </c>
       <c r="S26">
-        <v>0.02021067884862366</v>
+        <v>0.03051376720885489</v>
       </c>
       <c r="T26">
-        <v>0.01681423260341355</v>
+        <v>0.02709218956078989</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H27">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I27">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J27">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P27">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q27">
-        <v>52.27853162655511</v>
+        <v>60.08887286045979</v>
       </c>
       <c r="R27">
-        <v>470.506784638996</v>
+        <v>540.7998557441381</v>
       </c>
       <c r="S27">
-        <v>0.005145771298252024</v>
+        <v>0.008005637656829127</v>
       </c>
       <c r="T27">
-        <v>0.00642152073521303</v>
+        <v>0.0106619211323179</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H28">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I28">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J28">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N28">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O28">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P28">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q28">
-        <v>156.9667025480353</v>
+        <v>123.3484144668342</v>
       </c>
       <c r="R28">
-        <v>1412.700322932318</v>
+        <v>1110.135730201508</v>
       </c>
       <c r="S28">
-        <v>0.0154502188110934</v>
+        <v>0.01643370335900654</v>
       </c>
       <c r="T28">
-        <v>0.01928066653345375</v>
+        <v>0.02188643261616646</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H29">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I29">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J29">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N29">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O29">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P29">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q29">
-        <v>36.87468826866299</v>
+        <v>61.09424402942535</v>
       </c>
       <c r="R29">
-        <v>221.248129611978</v>
+        <v>366.565464176552</v>
       </c>
       <c r="S29">
-        <v>0.003629572343009208</v>
+        <v>0.008139583209578166</v>
       </c>
       <c r="T29">
-        <v>0.003019615228334081</v>
+        <v>0.007226873356880075</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H30">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I30">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J30">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N30">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O30">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P30">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q30">
-        <v>158.7837021953249</v>
+        <v>42.03629440402013</v>
       </c>
       <c r="R30">
-        <v>1429.053319757924</v>
+        <v>378.3266496361811</v>
       </c>
       <c r="S30">
-        <v>0.01562906592754927</v>
+        <v>0.005600493492628379</v>
       </c>
       <c r="T30">
-        <v>0.01950385376821185</v>
+        <v>0.00745874625858524</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H31">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I31">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J31">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N31">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O31">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P31">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q31">
-        <v>135.9278781766873</v>
+        <v>209.4230079566809</v>
       </c>
       <c r="R31">
-        <v>1223.350903590186</v>
+        <v>1884.807071610128</v>
       </c>
       <c r="S31">
-        <v>0.0133793691672588</v>
+        <v>0.02790141733225385</v>
       </c>
       <c r="T31">
-        <v>0.01669640789531535</v>
+        <v>0.0371591525657689</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H32">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I32">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J32">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>107.663086</v>
+        <v>104.480755</v>
       </c>
       <c r="N32">
-        <v>215.326172</v>
+        <v>208.96151</v>
       </c>
       <c r="O32">
-        <v>0.2751823527645522</v>
+        <v>0.3158951586858897</v>
       </c>
       <c r="P32">
-        <v>0.2057131686791961</v>
+        <v>0.2430112830697999</v>
       </c>
       <c r="Q32">
-        <v>715.6208856068347</v>
+        <v>509.3210779550016</v>
       </c>
       <c r="R32">
-        <v>4293.725313641008</v>
+        <v>3055.926467730009</v>
       </c>
       <c r="S32">
-        <v>0.07043850121671823</v>
+        <v>0.06785682285241262</v>
       </c>
       <c r="T32">
-        <v>0.05860116587693855</v>
+        <v>0.06024788401666163</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H33">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I33">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J33">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.07006323059444027</v>
+        <v>0.08287872686044118</v>
       </c>
       <c r="P33">
-        <v>0.07856388152449202</v>
+        <v>0.09563520617408686</v>
       </c>
       <c r="Q33">
-        <v>182.2017677469609</v>
+        <v>133.6262406796536</v>
       </c>
       <c r="R33">
-        <v>1639.815909722648</v>
+        <v>1202.636166116882</v>
       </c>
       <c r="S33">
-        <v>0.01793410407278637</v>
+        <v>0.01780301765369744</v>
       </c>
       <c r="T33">
-        <v>0.02238036136778688</v>
+        <v>0.02371008760046317</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H34">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I34">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J34">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>82.303927</v>
+        <v>56.26987066666667</v>
       </c>
       <c r="N34">
-        <v>246.911781</v>
+        <v>168.809612</v>
       </c>
       <c r="O34">
-        <v>0.2103654011331419</v>
+        <v>0.170130659215481</v>
       </c>
       <c r="P34">
-        <v>0.2358886724356653</v>
+        <v>0.1963167303233743</v>
       </c>
       <c r="Q34">
-        <v>547.0622412649427</v>
+        <v>274.3034464513125</v>
       </c>
       <c r="R34">
-        <v>4923.560171384484</v>
+        <v>2468.731018061812</v>
       </c>
       <c r="S34">
-        <v>0.05384728858812564</v>
+        <v>0.03654543504931765</v>
       </c>
       <c r="T34">
-        <v>0.06719721110052207</v>
+        <v>0.04867126929104625</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H35">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I35">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J35">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.3348755</v>
+        <v>27.870364</v>
       </c>
       <c r="N35">
-        <v>38.669751</v>
+        <v>55.740728</v>
       </c>
       <c r="O35">
-        <v>0.04941913452582716</v>
+        <v>0.08426540426907815</v>
       </c>
       <c r="P35">
-        <v>0.03694338192314825</v>
+        <v>0.06482354492233867</v>
       </c>
       <c r="Q35">
-        <v>128.516107446594</v>
+        <v>135.8619952112547</v>
       </c>
       <c r="R35">
-        <v>771.0966446795641</v>
+        <v>815.171971267528</v>
       </c>
       <c r="S35">
-        <v>0.0126498292221704</v>
+        <v>0.01810088712299465</v>
       </c>
       <c r="T35">
-        <v>0.01052399934352109</v>
+        <v>0.01607119375978994</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H36">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I36">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J36">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>83.25665266666667</v>
+        <v>19.17638633333334</v>
       </c>
       <c r="N36">
-        <v>249.769958</v>
+        <v>57.52915900000001</v>
       </c>
       <c r="O36">
-        <v>0.2128005281598046</v>
+        <v>0.05797936283854631</v>
       </c>
       <c r="P36">
-        <v>0.2386192492246122</v>
+        <v>0.06690339643179515</v>
       </c>
       <c r="Q36">
-        <v>553.3948703084792</v>
+        <v>93.48073488342324</v>
       </c>
       <c r="R36">
-        <v>4980.553832776312</v>
+        <v>841.326613950809</v>
       </c>
       <c r="S36">
-        <v>0.05447060871133573</v>
+        <v>0.01245443383683844</v>
       </c>
       <c r="T36">
-        <v>0.06797506593779958</v>
+        <v>0.01658683505401586</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H37">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I37">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J37">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.272429</v>
+        <v>95.53593066666667</v>
       </c>
       <c r="N37">
-        <v>213.817287</v>
+        <v>286.607792</v>
       </c>
       <c r="O37">
-        <v>0.1821693528222338</v>
+        <v>0.2888506881305636</v>
       </c>
       <c r="P37">
-        <v>0.2042716462128862</v>
+        <v>0.3333098390786051</v>
       </c>
       <c r="Q37">
-        <v>473.7374773033187</v>
+        <v>465.7169943936658</v>
       </c>
       <c r="R37">
-        <v>4263.637295729868</v>
+        <v>4191.452949542992</v>
       </c>
       <c r="S37">
-        <v>0.0466299384808175</v>
+        <v>0.06204745288535076</v>
       </c>
       <c r="T37">
-        <v>0.05819052178591636</v>
+        <v>0.08263489774115571</v>
       </c>
     </row>
   </sheetData>
